--- a/medicine/Mort/Décès_en_1937/Décès_en_1937.xlsx
+++ b/medicine/Mort/Décès_en_1937/Décès_en_1937.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1937</t>
+          <t>Décès_en_1937</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1937</t>
+          <t>Décès_en_1937</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Marcel Bain, peintre paysagiste, illustrateur et auteur dramatique français (° 21 novembre 1878).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Marcel Bain, peintre paysagiste, illustrateur et auteur dramatique français (° 21 novembre 1878).
 Gennaro Béfani, peintre français d'origine italienne (° 17 novembre 1866).
 Paul Louis Bouchard, peintre français (° 1853).
 Jules-Charles Choquet, peintre français (° 1846).
@@ -540,9 +557,43 @@
 Maurice Louis Monnot, peintre français (° 22 octobre 1869).
 Gustave Popelin, peintre et photographe français (° 30 juillet 1859).
 Max Silbert, peintre français d'origine russe (° 29 novembre 1871).
-Gustave Surand, peintre français (° 25 août 1860).
-Janvier
-1er janvier : Pierre-Eugène Vibert, peintre, dessinateur, illustrateur et graveur suisse (° 16 février 1875).
+Gustave Surand, peintre français (° 25 août 1860).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1937</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1937</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1er janvier : Pierre-Eugène Vibert, peintre, dessinateur, illustrateur et graveur suisse (° 16 février 1875).
 2 janvier : Ross Alexander, acteur américain (° 27 juillet 1907).
 6 janvier : Frère André, religieux canadien du Québec (° 9 août 1845).
 10 janvier : Gabriele Galantara, peintre, journaliste, dessinateur, illustrateur et caricaturiste anticlérical italien (° 18 octobre 1865).
@@ -555,9 +606,43 @@
 29 janvier : Marc-Aurèle de Foy Suzor-Coté, peintre et sculpteur (° 6 avril 1869).
 30 janvier :
 Henri Duvernois, écrivain français (° 4 mars 1875).
-Gueorgui Piatakov, homme politique russe puis soviétique (° 6 août 1890).
-Février
-5 février :
+Gueorgui Piatakov, homme politique russe puis soviétique (° 6 août 1890).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1937</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1937</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>5 février :
 Louis Adan, peintre et illustrateur français (° 26 mars 1839).
 Sydney Booth, acteur américain (° 29 janvier 1873).
 André Favory, peintre et illustrateur français (° 29 mars 1889).
@@ -572,9 +657,43 @@
 George Hassell, acteur anglais (° 4 mai 1881).
 Charles Laite, acteur britannique (° 15 juin 1883).
 Hugo Meisl, joueur, entraîneur, arbitre et dirigeant de football autrichien (° 16 novembre 1881).
-18 février : Grigory Ordjonikidze, révolutionnaire bolchévique géorgien et homme politique soviétique (° 24 octobre 1886).
-Mars
-1er mars : Iouri Pen, peintre russe puis soviétique (° 5 juin 1854).
+18 février : Grigory Ordjonikidze, révolutionnaire bolchévique géorgien et homme politique soviétique (° 24 octobre 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1937</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1937</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1er mars : Iouri Pen, peintre russe puis soviétique (° 5 juin 1854).
 5 mars : Mary Butts, écrivaine britannique (° 13 décembre 1890).
 6 mars : Frank Vosper, acteur, scénariste et dramaturge britannique (° 15 décembre 1899).
 8 mars : Howie Morenz, joueur de hockey sur glace canadien (° 21 septembre 1902).
@@ -588,9 +707,43 @@
 20 mars : André Raynaud, coureur cycliste français (° 10 novembre 1904).
 28 mars : Karol Szymanowski, compositeur polonais (° 6 octobre 1882).
 30 mars : T. Roy Barnes, acteur anglais (° 11 août 1880).
-31 mars : Ricardo Burguete, militaire, administrateur, homme politique et auteur espagnol  (° 3 février 1871).
-Avril
-4 avril : Arthur Foote, compositeur classique américain (° 5 mars 1853).
+31 mars : Ricardo Burguete, militaire, administrateur, homme politique et auteur espagnol  (° 3 février 1871).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1937</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1937</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>4 avril : Arthur Foote, compositeur classique américain (° 5 mars 1853).
 10 avril :
 Algernon Ashton, professeur, pianiste et compositeur anglais (° 9 décembre 1859).
 Liévin Verstraeten, homme politique belge (° 24 janvier 1848).
@@ -598,18 +751,86 @@
 28 avril : James Sutherland Spore, homme politique américain (° 13 mai 1885).
 29 avril :
 Wallace Hume Carothers, chimiste américain (° 27 avril 1896).
-Sam Sandi, lutteur professionnel polonais, d'origine camerounaise (° 1885).
-Mai
-10 mai :
+Sam Sandi, lutteur professionnel polonais, d'origine camerounaise (° 1885).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1937</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1937</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>10 mai :
 Paul Chabas, peintre français (° 7 mars 1869).
 Wilhelm Henie, spécialiste norvégien du cyclisme sur piste et du patinage de vitesse (° 7 septembre 1872).
 18 mai : Émile Duray, peintre français d'origine belge (° 12 septembre 1862).
 20 mai : Paul Sordes, peintre, pianiste et scénographe  français (° 9 février 1877).
 25 mai : Henry Ossawa Tanner, peintre afro-américain (° 21 juin 1859).
 26 mai : Vladimir Smirnov, homme politique et révolutionnaire russe puis soviétique (° 1887).
-30 mai : Madison Grant, avocat et naturaliste américain (° 19 novembre 1865).
-Juin
-2 juin : Louis Vierne, compositeur et organiste français (° 8 octobre 1870).
+30 mai : Madison Grant, avocat et naturaliste américain (° 19 novembre 1865).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1937</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1937</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2 juin : Louis Vierne, compositeur et organiste français (° 8 octobre 1870).
 3 juin : Tang Qunying, journaliste et activiste chinoise (° 8 décembre 1871).
 4 juin : Friedrich Hilble, fonctionnaire et conseiller municipal munichois (° 10 juin 1881).
 8 juin : Jean Harlow, actrice américaine (° 3 mars 1911).
@@ -626,9 +847,43 @@
 25 juin :
 Jānis Akuraters, poète et écrivain letton (° 13 janvier 1876).
 Colin Clive, acteur britannique (° 20 janvier 1900).
-27 juin : Sandro Akhmeteli, metteur en scène et directeur de théâtre soviétique (° 13 avril 1886).
-Juillet
-2 juillet :
+27 juin : Sandro Akhmeteli, metteur en scène et directeur de théâtre soviétique (° 13 avril 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1937</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1937</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2 juillet :
 Guillaume Van Strydonck, peintre et pastelliste belge (° 10 décembre 1861).
 Wayne Arey, acteur américain (° 12 avril 1880).
 11 juillet : George Gershwin, compositeur américain (° 26 septembre 1898).
@@ -637,17 +892,85 @@
 Evgueni Preobrajenski, économiste soviétique (° 15 février 1886).
 17 juillet : Gabriel Pierné, organiste, pianiste, compositeur et chef d'orchestre français (° 16 août 1863).
 20 juillet : Guglielmo Marconi, physicien italien (° 25 avril 1874).
-30 juillet : Georges Diéterle, architecte et peintre français (° 25 mars 1844).
-Août
-5 août : Léon Nassoy, peintre français (° 13 décembre 1873).
+30 juillet : Georges Diéterle, architecte et peintre français (° 25 mars 1844).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1937</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1937</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>5 août : Léon Nassoy, peintre français (° 13 décembre 1873).
 7 août : Henri Lebasque, peintre post-impressionniste français (° 25 septembre 1865).
 11 août : Stéphan Elmas, compositeur, pianiste et professeur arménien (° 24 décembre 1862).
 19 août : Ivan Strod, officier russe (° 10 avril 1894).
 21 août : Jean-Baptiste Schinler, homme politique belge (° 14 octobre 1863).
 23 août : Albert Roussel, compositeur français (° 5 avril 1869).
-31 août : Albert Heim, géologue suisse (° 12 avril 1849).
-Septembre
-2 septembre :
+31 août : Albert Heim, géologue suisse (° 12 avril 1849).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1937</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1937</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2 septembre :
 Alexandre Chliapnikov, homme politique russe puis soviétique (° 2 septembre 1885).
 Pierre de Coubertin, le rénovateur des Jeux olympiques (° 1er janvier 1863).
 3 septembre : François Guiguet, peintre et lithographe français (° 8 janvier 1860).
@@ -665,9 +988,43 @@
 28 septembre :
 Rodolphe Lemieux, avocat, journaliste, homme politique et professeur canadien (° 1er novembre 1866).
 Timofeï Sapronov, révolutionnaire russe puis soviétique (° 1887).
-30 septembre : Hélène Guinepied, peintre et pédagogue française (° 27 avril 1883).
-Octobre
-2 octobre : Jean Frois-Wittmann, psychanalyste français (° 20 février 1892).
+30 septembre : Hélène Guinepied, peintre et pédagogue française (° 27 avril 1883).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1937</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1937</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2 octobre : Jean Frois-Wittmann, psychanalyste français (° 20 février 1892).
 4 octobre : Maurice Joron, peintre français (° 18 janvier 1883).
 9 octobre : Auguste De Boeck, compositeur, organiste et pédagogue musical belge (° 9 mai 1865).
 13 octobre :
@@ -680,9 +1037,43 @@
 24 octobre : Ferdinand Küchler, violoniste allemand (° 14 juillet 1867).
 26 octobre : Pierre Waidmann, peintre et sculpteur français (° 19 août 1860).
 27 octobre : Joseph-Félix Bouchor, peintre français (° 15 septembre 1853).
-30 octobre : Avel Enoukidzé, homme politique russe puis soviétique (° 19 mai 1877).
-Novembre
-2 novembre :
+30 octobre : Avel Enoukidzé, homme politique russe puis soviétique (° 19 mai 1877).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1937</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1937</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2 novembre :
 Leonardo Bazzaro, peintre italien (° 13 décembre 1853).
 Henri Clamens, peintre orientaliste français (° 1er février 1905).
 Félix Gaffiot, philologue et professeur français (° 27 septembre 1870).
@@ -706,9 +1097,43 @@
 Isaak Roubine, économiste russe puis soviétique (° 12 juin 1886).
 Yéghiché Tcharents, écrivain arménien (° 13 mars 1897).
 28 novembre : James Naismith, inventeur du basket-ball (° 6 novembre 1861).
-29 novembre : Eugène de Barberiis, peintre français (° 9 mars 1851).
-Décembre
-3 décembre :
+29 novembre : Eugène de Barberiis, peintre français (° 9 mars 1851).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1937</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1937</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>3 décembre :
 Attila József, poète hongrois (° 11 avril 1905).
 Prosper Poullet, homme politique belge (° 5 mars 1868).
 5 décembre :  Georges Laugée, peintre français (° 19 décembre 1853).
